--- a/files/Maestro Masivos test.xlsx
+++ b/files/Maestro Masivos test.xlsx
@@ -26,6 +26,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="@"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -55,8 +58,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,17 +355,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
